--- a/hindi imposition analysis.xlsx
+++ b/hindi imposition analysis.xlsx
@@ -18,20 +18,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Negative</t>
+    <t>Neutral sentiment</t>
   </si>
   <si>
-    <t>Positive</t>
+    <t>Positive sentiment</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>Negative sentiment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +46,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -77,6 +83,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,109 +98,62 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="75"/>
-      <c:perspective val="30"/>
-    </c:view3D>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.1489042869335772E-2"/>
-          <c:y val="5.1175482728723597E-2"/>
-          <c:w val="0.81771370177918057"/>
-          <c:h val="0.93816750983698682"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pie3DChart>
+      <c:layout/>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sentimental analysis of hindi language imposition</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:explosion val="25"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:explosion val="14"/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:explosion val="14"/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:explosion val="9"/>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$C$2</c:f>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Negative</c:v>
+                  <c:v>Neutral sentiment</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Neutral</c:v>
+                  <c:v>Positive sentiment</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Positive</c:v>
+                  <c:v>Negative sentiment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$33:$C$33</c:f>
+              <c:f>Sheet1!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.1700000000000023E-2</c:v>
+                  <c:v>0.85072413793103396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85720000000000018</c:v>
+                  <c:v>0.117068965517241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1100000000000008E-2</c:v>
+                  <c:v>3.2206896551724103E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -202,20 +163,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21515</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26893</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -518,14 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,377 +509,87 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="5">
+        <v>0.85072413793103396</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.117068965517241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>0.161</v>
-      </c>
-      <c r="B3">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>0.182</v>
-      </c>
-      <c r="B4">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>0</v>
-      </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>3.2206896551724103E-2</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.88</v>
-      </c>
-      <c r="C6">
-        <v>0.12</v>
-      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="B7">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="C7">
-        <v>6.6000000000000003E-2</v>
-      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8">
-        <v>0.15</v>
-      </c>
-      <c r="B8">
-        <v>0.85</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0.65</v>
-      </c>
-      <c r="C9">
-        <v>0.35</v>
-      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="B11">
-        <v>0.627</v>
-      </c>
-      <c r="C11">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12">
-        <v>0.155</v>
-      </c>
-      <c r="B12">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14">
-        <v>0.2</v>
-      </c>
-      <c r="B14">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="C14">
-        <v>0.11600000000000001</v>
-      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>0.189</v>
-      </c>
-      <c r="B17">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
+    <row r="17" spans="6:6">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
+    <row r="18" spans="6:6">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
+    <row r="19" spans="6:6">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="B20">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
+    <row r="20" spans="6:6">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
+    <row r="21" spans="6:6">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>0.127</v>
-      </c>
-      <c r="B22">
-        <v>0.873</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
+    <row r="22" spans="6:6">
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>0.18</v>
-      </c>
-      <c r="B23">
-        <v>0.82</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="B24">
-        <v>0.6</v>
-      </c>
-      <c r="C24">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>0.216</v>
-      </c>
-      <c r="B26">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>0.154</v>
-      </c>
-      <c r="B27">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="B28">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="C29">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="C30">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="C31">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="B32">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="C32">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <f>AVERAGE(A3:A32)</f>
-        <v>8.1700000000000023E-2</v>
-      </c>
-      <c r="B33">
-        <f>AVERAGE(B3:B32)</f>
-        <v>0.85720000000000018</v>
-      </c>
-      <c r="C33">
-        <f>AVERAGE(C3:C32)</f>
-        <v>6.1100000000000008E-2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
